--- a/map_conv_table.xlsx
+++ b/map_conv_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilo/OneDrive - Universidad de los Andes/Estudio/Tesis_maestría/Code/Emissions_conversor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE42928F-DF6A-2146-98C3-E837A4A5D900}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF48266-299A-1743-AB7D-0BC6B92FA3DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1488,14 +1488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1610,7 +1609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1629,7 +1628,7 @@
       <c r="F4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1704,7 +1703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2011,7 +2010,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -3025,7 +3024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>120</v>
       </c>
@@ -3159,7 +3158,7 @@
       <c r="F53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -3203,7 +3202,7 @@
       <c r="F55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -3222,7 +3221,7 @@
       <c r="F56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -3241,7 +3240,7 @@
       <c r="F57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -3260,7 +3259,7 @@
       <c r="F58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -3279,7 +3278,7 @@
       <c r="F59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -3298,7 +3297,7 @@
       <c r="F60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -3317,7 +3316,7 @@
       <c r="F61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -3336,7 +3335,7 @@
       <c r="F62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -3355,7 +3354,7 @@
       <c r="F63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>138</v>
       </c>
@@ -3374,7 +3373,7 @@
       <c r="F64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>140</v>
       </c>
@@ -3393,7 +3392,7 @@
       <c r="F65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -3412,7 +3411,7 @@
       <c r="F66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -3431,7 +3430,7 @@
       <c r="F67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>144</v>
       </c>
@@ -3450,7 +3449,7 @@
       <c r="F68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -3469,7 +3468,7 @@
       <c r="F69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -3488,7 +3487,7 @@
       <c r="F70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -3507,7 +3506,7 @@
       <c r="F71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>147</v>
       </c>
@@ -3526,7 +3525,7 @@
       <c r="F72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>147</v>
       </c>
@@ -3545,7 +3544,7 @@
       <c r="F73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>148</v>
       </c>
@@ -3564,7 +3563,7 @@
       <c r="F74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -4140,7 +4139,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>194</v>
       </c>
@@ -4151,7 +4150,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>196</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>198</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
         <v>203</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
         <v>204</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
         <v>205</v>
       </c>
@@ -4261,7 +4260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
         <v>206</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
         <v>207</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>208</v>
       </c>
@@ -4297,7 +4296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
         <v>209</v>
       </c>
@@ -4309,7 +4308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
         <v>210</v>
       </c>
@@ -4321,7 +4320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
         <v>211</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
         <v>212</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
         <v>213</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
         <v>214</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
         <v>215</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
         <v>216</v>
       </c>
@@ -4393,7 +4392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
         <v>217</v>
       </c>
@@ -4405,7 +4404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
         <v>218</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
         <v>219</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
         <v>220</v>
       </c>
@@ -4441,7 +4440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
         <v>221</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
         <v>222</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
         <v>223</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
         <v>224</v>
       </c>
@@ -4489,7 +4488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
         <v>225</v>
       </c>
@@ -4501,7 +4500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
         <v>226</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>227</v>
       </c>
@@ -4525,7 +4524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
         <v>228</v>
       </c>
@@ -4537,7 +4536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
         <v>229</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
         <v>230</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
         <v>231</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
         <v>232</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
         <v>233</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
         <v>234</v>
       </c>
@@ -4609,7 +4608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
         <v>235</v>
       </c>
@@ -4621,7 +4620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
         <v>236</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
         <v>237</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
         <v>238</v>
       </c>
@@ -4657,7 +4656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
         <v>239</v>
       </c>
@@ -4669,7 +4668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
         <v>240</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
         <v>241</v>
       </c>
@@ -4693,7 +4692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
         <v>242</v>
       </c>
@@ -4705,7 +4704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
         <v>243</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
         <v>244</v>
       </c>
@@ -4729,7 +4728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
         <v>245</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
         <v>246</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
         <v>247</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
         <v>248</v>
       </c>
@@ -4777,7 +4776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
         <v>249</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
         <v>250</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
         <v>251</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
         <v>252</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
         <v>253</v>
       </c>
@@ -4837,7 +4836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
         <v>254</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
         <v>255</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
         <v>256</v>
       </c>
@@ -4873,7 +4872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
         <v>257</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
         <v>258</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
         <v>259</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
         <v>260</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
         <v>261</v>
       </c>
@@ -4933,7 +4932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
         <v>262</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
         <v>263</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
         <v>264</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
         <v>265</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
         <v>266</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
         <v>267</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
         <v>268</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
         <v>269</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
         <v>270</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
         <v>271</v>
       </c>
@@ -5053,7 +5052,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>273</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>274</v>
       </c>
@@ -5079,7 +5078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>275</v>
       </c>
@@ -5105,7 +5104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>276</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>277</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>278</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>279</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>213</v>
       </c>
@@ -5170,7 +5169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>280</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>281</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>282</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>283</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>284</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>285</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>286</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>287</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>288</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>289</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -5313,7 +5312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>290</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>291</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>292</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>294</v>
       </c>
@@ -5365,7 +5364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>295</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>296</v>
       </c>
@@ -5391,7 +5390,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>298</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>299</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>301</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>302</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>304</v>
       </c>
@@ -5456,7 +5455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>305</v>
       </c>
@@ -5469,7 +5468,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>307</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>308</v>
       </c>
@@ -5495,7 +5494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>309</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>311</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>312</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>313</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>314</v>
       </c>
@@ -5560,7 +5559,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>315</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>316</v>
       </c>
@@ -5586,7 +5585,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>318</v>
       </c>
@@ -5599,7 +5598,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>320</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>321</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>323</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>325</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>326</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>327</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>328</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>330</v>
       </c>
@@ -5703,7 +5702,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>331</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>332</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>333</v>
       </c>
@@ -5742,7 +5741,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>334</v>
       </c>
@@ -5755,7 +5754,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>335</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>336</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>337</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>338</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>339</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>340</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>341</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>342</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>343</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>344</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>345</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>346</v>
       </c>
@@ -5911,7 +5910,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>347</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>349</v>
       </c>
@@ -5938,18 +5937,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K236" xr:uid="{EBFA538A-B8E8-514B-9D1E-B77B75EBB2E5}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K236" xr:uid="{EBFA538A-B8E8-514B-9D1E-B77B75EBB2E5}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>